--- a/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
+++ b/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kath/Documents/DebraSolutions/desarrollo/SBRVP/gestion/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,450 +35,431 @@
     <t xml:space="preserve"> ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predecesoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignado a</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Predecesoras</t>
+  </si>
+  <si>
+    <t>Asignado a</t>
   </si>
   <si>
     <t xml:space="preserve">Porcentaje </t>
   </si>
   <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluado al</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sistema de búsqueda, recomendación y venta de productos para mypes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/20/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/15/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Análisis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/26/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1. Reuniones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/23/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMPLETO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunión con el cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1día</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arce, Chacaliaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/21/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunión con el equipo de trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/21/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reuniones y encuesta a los usuarios finales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/22/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaborar plan de proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/25/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaborar documento de negocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/27/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/28/2019</t>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Evaluado al</t>
+  </si>
+  <si>
+    <t>Sistema de búsqueda, recomendación y venta de productos para mypes</t>
+  </si>
+  <si>
+    <t>40días</t>
+  </si>
+  <si>
+    <t>09/20/2019</t>
+  </si>
+  <si>
+    <t>11/15/2019</t>
+  </si>
+  <si>
+    <t>1. Análisis</t>
+  </si>
+  <si>
+    <t>6días</t>
+  </si>
+  <si>
+    <t>09/26/2019</t>
+  </si>
+  <si>
+    <t>1.1. Reuniones</t>
+  </si>
+  <si>
+    <t>3días</t>
+  </si>
+  <si>
+    <t>09/23/2019</t>
+  </si>
+  <si>
+    <t>COMPLETO</t>
+  </si>
+  <si>
+    <t>Reunión con el cliente</t>
+  </si>
+  <si>
+    <t>1día</t>
+  </si>
+  <si>
+    <t>Arce, Chacaliaza</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>11/21/2019</t>
+  </si>
+  <si>
+    <t>Reunión con el equipo de trabajo</t>
+  </si>
+  <si>
+    <t>09/21/2019</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Reuniones y encuesta a los usuarios finales</t>
+  </si>
+  <si>
+    <t>09/22/2019</t>
+  </si>
+  <si>
+    <t>Elaborar plan de proyecto</t>
+  </si>
+  <si>
+    <t>2días</t>
+  </si>
+  <si>
+    <t>09/25/2019</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>Elaborar documento de negocio</t>
+  </si>
+  <si>
+    <t>09/27/2019</t>
+  </si>
+  <si>
+    <t>09/28/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Caillahua </t>
   </si>
   <si>
-    <t xml:space="preserve">1.2. Especificación de requerimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identificación y especificación CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requerimientos funcionales y no funcionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maita, Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion del Dcoumento de Requerimientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Diseño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/05/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1. Diseño funcional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/29/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo de prototipos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arce, Chacaliaza, Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación de prototipos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llerena, Chacaliaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2. Diseño técnico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar los CU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/30/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llerena, Asmat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diseño de la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/01/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chacaliaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento arquitectónico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/02/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de diseño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maverick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/14/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1. Ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/08/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/06/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantener el ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/07/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cierre del ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2. Front-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/29/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maquetar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/11/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codificación vistas web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muñoz, Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3. Back-end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33dìas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conexión a la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chacaliaza, Gutierrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codificación de la lógica de negocio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4. Aplicación móvil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo de los layouts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/17/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arce, Caillahua, Maverick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codificación vistas móvil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5. Base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación del Script de base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chacaliaza, Gutierrez, Maita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementación de la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/30/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1. Ambiente de prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/02/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparar el ambiente de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/31/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantener el ambiente de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/01/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cierre del ambiente de pruebas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arce, Maverick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2. Pruebas integrales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/06/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspecciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/05/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutierrez, Llerena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.3. Pruebas de aceptación de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/07/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar cambios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Cierre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1. Documentos de prueba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizar resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caillahua, Arce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentar resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ortiz, Maita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2. Documento de despliegue y uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentación de despliegue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documento de manual de usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aceptación del sistema</t>
+    <t>1.2. Especificación de requerimientos</t>
+  </si>
+  <si>
+    <t>Identificación y especificación CU</t>
+  </si>
+  <si>
+    <t>Maita</t>
+  </si>
+  <si>
+    <t>Requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>Maita, Ortiz</t>
+  </si>
+  <si>
+    <t>Creacion del Dcoumento de Requerimientos</t>
+  </si>
+  <si>
+    <t>2 dias</t>
+  </si>
+  <si>
+    <t>2. Diseño</t>
+  </si>
+  <si>
+    <t>9días</t>
+  </si>
+  <si>
+    <t>10/05/2019</t>
+  </si>
+  <si>
+    <t>2.1. Diseño funcional</t>
+  </si>
+  <si>
+    <t>09/29/2019</t>
+  </si>
+  <si>
+    <t>Desarrollo de prototipos</t>
+  </si>
+  <si>
+    <t>Arce, Chacaliaza, Gutierrez</t>
+  </si>
+  <si>
+    <t>Evaluación de prototipos</t>
+  </si>
+  <si>
+    <t>Llerena, Chacaliaza</t>
+  </si>
+  <si>
+    <t>2.2. Diseño técnico</t>
+  </si>
+  <si>
+    <t>Realizar los CU</t>
+  </si>
+  <si>
+    <t>09/30/2019</t>
+  </si>
+  <si>
+    <t>Llerena, Asmat</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>Chacaliaza</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Documento arquitectónico</t>
+  </si>
+  <si>
+    <t>10/02/2019</t>
+  </si>
+  <si>
+    <t>Documento de diseño</t>
+  </si>
+  <si>
+    <t>Maverick</t>
+  </si>
+  <si>
+    <t>3. Desarrollo</t>
+  </si>
+  <si>
+    <t>24días</t>
+  </si>
+  <si>
+    <t>11/14/2019</t>
+  </si>
+  <si>
+    <t>3.1. Ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>10/08/2019</t>
+  </si>
+  <si>
+    <t>Preparar ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>10/06/2019</t>
+  </si>
+  <si>
+    <t>Mantener el ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>10/07/2019</t>
+  </si>
+  <si>
+    <t>Arce</t>
+  </si>
+  <si>
+    <t>Cierre del ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t>3.2. Front-end</t>
+  </si>
+  <si>
+    <t>21días</t>
+  </si>
+  <si>
+    <t>10/29/2019</t>
+  </si>
+  <si>
+    <t>Maquetar</t>
+  </si>
+  <si>
+    <t>4días</t>
+  </si>
+  <si>
+    <t>10/11/2019</t>
+  </si>
+  <si>
+    <t>Codificación vistas web</t>
+  </si>
+  <si>
+    <t>17días</t>
+  </si>
+  <si>
+    <t>Muñoz, Ortiz</t>
+  </si>
+  <si>
+    <t>3.3. Back-end</t>
+  </si>
+  <si>
+    <t>33dìas</t>
+  </si>
+  <si>
+    <t>Conexión a la base de datos</t>
+  </si>
+  <si>
+    <t>Chacaliaza, Gutierrez</t>
+  </si>
+  <si>
+    <t>Codificación de la lógica de negocio</t>
+  </si>
+  <si>
+    <t>31 días</t>
+  </si>
+  <si>
+    <t>3.4. Aplicación móvil</t>
+  </si>
+  <si>
+    <t>22días</t>
+  </si>
+  <si>
+    <t>Desarrollo de los layouts</t>
+  </si>
+  <si>
+    <t>10días</t>
+  </si>
+  <si>
+    <t>10/17/2019</t>
+  </si>
+  <si>
+    <t>Arce, Caillahua, Maverick</t>
+  </si>
+  <si>
+    <t>Codificación vistas móvil</t>
+  </si>
+  <si>
+    <t>11días</t>
+  </si>
+  <si>
+    <t>3.5. Base de datos</t>
+  </si>
+  <si>
+    <t>Creación del Script de base de datos</t>
+  </si>
+  <si>
+    <t>Chacaliaza, Gutierrez, Maita</t>
+  </si>
+  <si>
+    <t>Implementación de la base de datos</t>
+  </si>
+  <si>
+    <t>4. Pruebas</t>
+  </si>
+  <si>
+    <t>15días</t>
+  </si>
+  <si>
+    <t>11/30/2019</t>
+  </si>
+  <si>
+    <t>4.1. Ambiente de prueba</t>
+  </si>
+  <si>
+    <t>11/02/2019</t>
+  </si>
+  <si>
+    <t>Preparar el ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>10/31/2019</t>
+  </si>
+  <si>
+    <t>Mantener el ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>11/01/2019</t>
+  </si>
+  <si>
+    <t>Cierre del ambiente de pruebas</t>
+  </si>
+  <si>
+    <t>Arce, Maverick</t>
+  </si>
+  <si>
+    <t>4.2. Pruebas integrales</t>
+  </si>
+  <si>
+    <t>5días</t>
+  </si>
+  <si>
+    <t>11/06/2019</t>
+  </si>
+  <si>
+    <t>Inspecciones</t>
+  </si>
+  <si>
+    <t>11/05/2019</t>
+  </si>
+  <si>
+    <t>Gutierrez, Llerena</t>
+  </si>
+  <si>
+    <t>4.3. Pruebas de aceptación de usuario</t>
+  </si>
+  <si>
+    <t>11/12/2019</t>
+  </si>
+  <si>
+    <t>Validación</t>
+  </si>
+  <si>
+    <t>11/07/2019</t>
+  </si>
+  <si>
+    <t>Realizar cambios</t>
+  </si>
+  <si>
+    <t>5. Cierre</t>
+  </si>
+  <si>
+    <t>5.1. Documentos de prueba</t>
+  </si>
+  <si>
+    <t>Analizar resultados</t>
+  </si>
+  <si>
+    <t>Caillahua, Arce</t>
+  </si>
+  <si>
+    <t>Documentar resultados</t>
+  </si>
+  <si>
+    <t>Ortiz, Maita</t>
+  </si>
+  <si>
+    <t>5.2. Documento de despliegue y uso</t>
+  </si>
+  <si>
+    <t>Documentación de despliegue</t>
+  </si>
+  <si>
+    <t>Documento de manual de usuario</t>
+  </si>
+  <si>
+    <t>Aceptación del sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0\ %"/>
-    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="DD/MM/YYYY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\ %"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -516,284 +507,180 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -852,35 +739,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="9.17"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -912,8 +1070,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -934,8 +1092,8 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -956,8 +1114,8 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -974,7 +1132,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="20" t="n">
+      <c r="H4" s="20">
         <v>1</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -982,8 +1140,8 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1002,7 +1160,7 @@
       <c r="G5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="25" t="n">
+      <c r="H5" s="25">
         <v>1</v>
       </c>
       <c r="I5" s="23" t="s">
@@ -1012,8 +1170,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -1032,7 +1190,7 @@
       <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="25" t="n">
+      <c r="H6" s="25">
         <v>1</v>
       </c>
       <c r="I6" s="23" t="s">
@@ -1042,8 +1200,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1058,13 +1216,13 @@
       <c r="E7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="23">
         <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="25" t="n">
+      <c r="H7" s="25">
         <v>1</v>
       </c>
       <c r="I7" s="23" t="s">
@@ -1074,8 +1232,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1094,7 +1252,7 @@
       <c r="G8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="25" t="n">
+      <c r="H8" s="25">
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
@@ -1104,8 +1262,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -1124,7 +1282,7 @@
       <c r="G9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="25" t="n">
+      <c r="H9" s="25">
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
@@ -1134,8 +1292,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1158,8 +1316,8 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -1174,13 +1332,13 @@
       <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="23">
         <v>8</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="25">
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
@@ -1190,8 +1348,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1206,13 +1364,13 @@
       <c r="E12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23" t="n">
+      <c r="F12" s="23">
         <v>10</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="25" t="n">
+      <c r="H12" s="25">
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
@@ -1222,8 +1380,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -1238,13 +1396,13 @@
       <c r="E13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="23" t="n">
+      <c r="F13" s="23">
         <v>11</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="25" t="n">
+      <c r="H13" s="25">
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
@@ -1254,8 +1412,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1276,8 +1434,8 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1294,14 +1452,14 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="20" t="n">
-        <v>0.9</v>
+      <c r="H15" s="20">
+        <v>1</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" s="33" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
+    <row r="16" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -1316,13 +1474,13 @@
       <c r="E16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="29">
         <v>11</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="32">
         <v>1</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -1332,8 +1490,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -1348,13 +1506,13 @@
       <c r="E17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="23" t="n">
+      <c r="F17" s="23">
         <v>15</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="25" t="n">
+      <c r="H17" s="25">
         <v>1</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -1364,8 +1522,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="n">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1386,8 +1544,8 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -1402,13 +1560,13 @@
       <c r="E19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="23" t="n">
+      <c r="F19" s="23">
         <v>16</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="25" t="n">
+      <c r="H19" s="25">
         <v>1</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -1418,8 +1576,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -1434,13 +1592,13 @@
       <c r="E20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="23" t="n">
+      <c r="F20" s="23">
         <v>16</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="25" t="n">
+      <c r="H20" s="25">
         <v>0.9</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -1450,8 +1608,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="n">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1466,13 +1624,13 @@
       <c r="E21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="23" t="n">
+      <c r="F21" s="23">
         <v>16</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="25" t="n">
+      <c r="H21" s="25">
         <v>1</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -1482,8 +1640,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1498,13 +1656,13 @@
       <c r="E22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="23" t="n">
+      <c r="F22" s="23">
         <v>20</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="25" t="n">
+      <c r="H22" s="25">
         <v>1</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -1514,8 +1672,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="n">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1536,8 +1694,8 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="n">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1558,8 +1716,8 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="n">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -1574,22 +1732,22 @@
       <c r="E25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="23" t="n">
+      <c r="F25" s="23">
         <v>21</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="34" t="n">
-        <v>0.15</v>
+      <c r="H25" s="34">
+        <v>0.5</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="n">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -1604,22 +1762,22 @@
       <c r="E26" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="23" t="n">
+      <c r="F26" s="23">
         <v>24</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="34" t="n">
-        <v>0.2</v>
+      <c r="H26" s="34">
+        <v>0.7</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -1634,13 +1792,13 @@
       <c r="E27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="23" t="n">
+      <c r="F27" s="23">
         <v>25</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="34" t="n">
+      <c r="H27" s="34">
         <v>0.1</v>
       </c>
       <c r="I27" s="23"/>
@@ -1648,8 +1806,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -1658,7 +1816,7 @@
       <c r="C28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="35" t="n">
+      <c r="D28" s="35">
         <v>43687</v>
       </c>
       <c r="E28" s="36" t="s">
@@ -1670,8 +1828,8 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -1680,28 +1838,28 @@
       <c r="C29" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="37" t="n">
+      <c r="D29" s="37">
         <v>43687</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="23" t="n">
+      <c r="F29" s="23">
         <v>25</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="38" t="n">
-        <v>0.5</v>
+      <c r="H29" s="38">
+        <v>1</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -1716,22 +1874,22 @@
       <c r="E30" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="23" t="n">
+      <c r="F30" s="23">
         <v>28</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="38" t="n">
-        <v>0.5</v>
+      <c r="H30" s="38">
+        <v>1</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -1740,7 +1898,7 @@
       <c r="C31" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="35" t="n">
+      <c r="D31" s="35">
         <v>43779</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -1752,8 +1910,8 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="n">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -1762,19 +1920,19 @@
       <c r="C32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="37" t="n">
+      <c r="D32" s="37">
         <v>43779</v>
       </c>
-      <c r="E32" s="37" t="n">
+      <c r="E32" s="37">
         <v>43779</v>
       </c>
-      <c r="F32" s="23" t="n">
+      <c r="F32" s="23">
         <v>38</v>
       </c>
       <c r="G32" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="34" t="n">
+      <c r="H32" s="34">
         <v>0.15</v>
       </c>
       <c r="I32" s="23"/>
@@ -1782,8 +1940,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="n">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -1792,19 +1950,19 @@
       <c r="C33" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="41" t="n">
+      <c r="D33" s="41">
         <v>43809</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="23" t="n">
+      <c r="F33" s="23">
         <v>31</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="34" t="n">
+      <c r="H33" s="34">
         <v>0.6</v>
       </c>
       <c r="I33" s="23"/>
@@ -1812,8 +1970,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -1822,7 +1980,7 @@
       <c r="C34" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="35" t="n">
+      <c r="D34" s="35">
         <v>43687</v>
       </c>
       <c r="E34" s="36" t="s">
@@ -1836,8 +1994,8 @@
       </c>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" s="47" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="42" t="n">
+    <row r="35" spans="1:10" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A35" s="42">
         <v>34</v>
       </c>
       <c r="B35" s="43" t="s">
@@ -1846,19 +2004,19 @@
       <c r="C35" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="45" t="n">
+      <c r="D35" s="45">
         <v>43687</v>
       </c>
       <c r="E35" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="43" t="n">
+      <c r="F35" s="43">
         <v>25</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="46" t="n">
+      <c r="H35" s="46">
         <v>1</v>
       </c>
       <c r="I35" s="43" t="s">
@@ -1868,8 +2026,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" s="50" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="n">
+    <row r="36" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
@@ -1884,13 +2042,13 @@
       <c r="E36" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="30" t="n">
+      <c r="F36" s="30">
         <v>34</v>
       </c>
       <c r="G36" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="49" t="n">
+      <c r="H36" s="49">
         <v>1</v>
       </c>
       <c r="I36" s="30" t="s">
@@ -1900,8 +2058,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -1913,7 +2071,7 @@
       <c r="D37" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="35" t="n">
+      <c r="E37" s="35">
         <v>43748</v>
       </c>
       <c r="F37" s="17"/>
@@ -1922,8 +2080,8 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="n">
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -1935,10 +2093,10 @@
       <c r="D38" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="37" t="n">
+      <c r="E38" s="37">
         <v>43718</v>
       </c>
-      <c r="F38" s="23" t="n">
+      <c r="F38" s="23">
         <v>25</v>
       </c>
       <c r="G38" s="40" t="s">
@@ -1950,8 +2108,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="n">
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -1960,13 +2118,13 @@
       <c r="C39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="37" t="n">
+      <c r="D39" s="37">
         <v>43718</v>
       </c>
-      <c r="E39" s="37" t="n">
+      <c r="E39" s="37">
         <v>43748</v>
       </c>
-      <c r="F39" s="23" t="n">
+      <c r="F39" s="23">
         <v>37</v>
       </c>
       <c r="G39" s="40" t="s">
@@ -1978,8 +2136,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="n">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -2000,8 +2158,8 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="n">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2022,8 +2180,8 @@
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="n">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -2038,7 +2196,7 @@
       <c r="E42" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="F42" s="23" t="n">
+      <c r="F42" s="23">
         <v>32</v>
       </c>
       <c r="G42" s="23" t="s">
@@ -2050,8 +2208,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="n">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -2066,7 +2224,7 @@
       <c r="E43" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="23" t="n">
+      <c r="F43" s="23">
         <v>41</v>
       </c>
       <c r="G43" s="23" t="s">
@@ -2078,8 +2236,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="n">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -2094,7 +2252,7 @@
       <c r="E44" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="23" t="n">
+      <c r="F44" s="23">
         <v>42</v>
       </c>
       <c r="G44" s="23" t="s">
@@ -2106,8 +2264,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="n">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -2128,8 +2286,8 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="n">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -2154,8 +2312,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="n">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2176,8 +2334,8 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="n">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -2192,7 +2350,7 @@
       <c r="E48" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F48" s="23" t="n">
+      <c r="F48" s="23">
         <v>45</v>
       </c>
       <c r="G48" s="23" t="s">
@@ -2204,8 +2362,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="n">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -2220,7 +2378,7 @@
       <c r="E49" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="23" t="n">
+      <c r="F49" s="23">
         <v>47</v>
       </c>
       <c r="G49" s="23" t="s">
@@ -2232,8 +2390,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="27">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -2242,10 +2400,10 @@
       <c r="C50" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="51" t="n">
+      <c r="D50" s="51">
         <v>43477</v>
       </c>
-      <c r="E50" s="51" t="n">
+      <c r="E50" s="51">
         <v>43597</v>
       </c>
       <c r="F50" s="15"/>
@@ -2254,8 +2412,8 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="n">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
@@ -2264,10 +2422,10 @@
       <c r="C51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="52" t="n">
+      <c r="D51" s="52">
         <v>43477</v>
       </c>
-      <c r="E51" s="52" t="n">
+      <c r="E51" s="52">
         <v>43536</v>
       </c>
       <c r="F51" s="17"/>
@@ -2276,8 +2434,8 @@
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="n">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -2286,13 +2444,13 @@
       <c r="C52" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D52" s="53" t="n">
+      <c r="D52" s="53">
         <v>43477</v>
       </c>
-      <c r="E52" s="53" t="n">
+      <c r="E52" s="53">
         <v>43508</v>
       </c>
-      <c r="F52" s="23" t="n">
+      <c r="F52" s="23">
         <v>48</v>
       </c>
       <c r="G52" s="23" t="s">
@@ -2304,8 +2462,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="n">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -2314,13 +2472,13 @@
       <c r="C53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="53" t="n">
+      <c r="D53" s="53">
         <v>43536</v>
       </c>
-      <c r="E53" s="53" t="n">
+      <c r="E53" s="53">
         <v>43536</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F53" s="23">
         <v>21</v>
       </c>
       <c r="G53" s="23" t="s">
@@ -2332,8 +2490,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16" t="n">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2342,10 +2500,10 @@
       <c r="C54" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="52" t="n">
+      <c r="D54" s="52">
         <v>43536</v>
       </c>
-      <c r="E54" s="52" t="n">
+      <c r="E54" s="52">
         <v>43597</v>
       </c>
       <c r="F54" s="17"/>
@@ -2354,8 +2512,8 @@
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="n">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -2364,13 +2522,13 @@
       <c r="C55" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="53" t="n">
+      <c r="D55" s="53">
         <v>43567</v>
       </c>
-      <c r="E55" s="53" t="n">
+      <c r="E55" s="53">
         <v>43597</v>
       </c>
-      <c r="F55" s="23" t="n">
+      <c r="F55" s="23">
         <v>48</v>
       </c>
       <c r="G55" s="23" t="s">
@@ -2382,8 +2540,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" s="56" customFormat="true" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="42" t="n">
+    <row r="56" spans="1:10" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A56" s="42">
         <v>55</v>
       </c>
       <c r="B56" s="54" t="s">
@@ -2392,13 +2550,13 @@
       <c r="C56" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="55" t="n">
+      <c r="D56" s="55">
         <v>43536</v>
       </c>
-      <c r="E56" s="55" t="n">
+      <c r="E56" s="55">
         <v>43567</v>
       </c>
-      <c r="F56" s="54" t="n">
+      <c r="F56" s="54">
         <v>49</v>
       </c>
       <c r="G56" s="54" t="s">
@@ -2410,8 +2568,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="n">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -2420,10 +2578,10 @@
       <c r="C57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="52" t="n">
+      <c r="D57" s="52">
         <v>43597</v>
       </c>
-      <c r="E57" s="52" t="n">
+      <c r="E57" s="52">
         <v>43597</v>
       </c>
       <c r="F57" s="17"/>
@@ -2433,12 +2591,7 @@
       <c r="J57" s="17"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
+++ b/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
   <si>
     <t xml:space="preserve"> ID</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Completo</t>
-  </si>
-  <si>
-    <t>11/21/2019</t>
   </si>
   <si>
     <t>Reunión con el equipo de trabajo</t>
@@ -533,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -673,6 +670,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1166,8 +1166,8 @@
       <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="26" t="s">
-        <v>25</v>
+      <c r="J5" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>22</v>
@@ -1184,11 +1184,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="25">
         <v>1</v>
@@ -1196,8 +1196,8 @@
       <c r="I6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>25</v>
+      <c r="J6" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1205,13 +1205,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>19</v>
@@ -1228,8 +1228,8 @@
       <c r="I7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>25</v>
+      <c r="J7" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1237,20 +1237,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="25">
         <v>1</v>
@@ -1258,8 +1258,8 @@
       <c r="I8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>25</v>
+      <c r="J8" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1267,20 +1267,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>37</v>
       </c>
       <c r="F9" s="23"/>
       <c r="G9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="25">
         <v>1</v>
@@ -1288,8 +1288,8 @@
       <c r="I9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>25</v>
+      <c r="J9" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>18</v>
@@ -1321,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>18</v>
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="25">
         <v>1</v>
@@ -1344,8 +1344,8 @@
       <c r="I11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>25</v>
+      <c r="J11" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>18</v>
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="25">
         <v>1</v>
@@ -1376,8 +1376,8 @@
       <c r="I12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>25</v>
+      <c r="J12" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1385,22 +1385,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="23">
         <v>11</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="25">
         <v>1</v>
@@ -1408,8 +1408,8 @@
       <c r="I13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="26" t="s">
-        <v>25</v>
+      <c r="J13" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1417,16 +1417,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -1439,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>18</v>
@@ -1448,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -1463,22 +1463,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="29">
         <v>11</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="32">
         <v>1</v>
@@ -1486,8 +1486,8 @@
       <c r="I16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="26" t="s">
-        <v>25</v>
+      <c r="J16" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1495,22 +1495,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="23">
         <v>15</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="25">
         <v>1</v>
@@ -1518,8 +1518,8 @@
       <c r="I17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="26" t="s">
-        <v>25</v>
+      <c r="J17" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1527,16 +1527,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1549,22 +1549,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="23">
         <v>16</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="25">
         <v>1</v>
@@ -1572,8 +1572,8 @@
       <c r="I19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="26" t="s">
-        <v>25</v>
+      <c r="J19" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1581,31 +1581,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="23">
         <v>16</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="25">
         <v>0.9</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="J20" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1613,22 +1613,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="23">
         <v>16</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="25">
         <v>1</v>
@@ -1636,8 +1636,8 @@
       <c r="I21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>25</v>
+      <c r="J21" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1645,22 +1645,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="23">
         <v>20</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="25">
         <v>1</v>
@@ -1668,8 +1668,8 @@
       <c r="I22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>25</v>
+      <c r="J22" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1677,16 +1677,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>69</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -1699,16 +1699,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1721,29 +1721,29 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="23">
         <v>21</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="34">
         <v>0.5</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="26" t="s">
-        <v>25</v>
+      <c r="J25" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1751,29 +1751,29 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="23">
         <v>24</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="34">
         <v>0.7</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="26" t="s">
-        <v>25</v>
+      <c r="J26" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1781,29 +1781,29 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="23">
         <v>25</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H27" s="34">
         <v>0.1</v>
       </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="26" t="s">
-        <v>25</v>
+      <c r="J27" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1811,16 +1811,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D28" s="35">
         <v>43687</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -1833,29 +1833,29 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>82</v>
       </c>
       <c r="D29" s="37">
         <v>43687</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F29" s="23">
         <v>25</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="38">
         <v>1</v>
       </c>
       <c r="I29" s="23"/>
-      <c r="J29" s="26" t="s">
-        <v>25</v>
+      <c r="J29" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1863,29 +1863,29 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>85</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="23">
         <v>28</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H30" s="38">
         <v>1</v>
       </c>
       <c r="I30" s="23"/>
-      <c r="J30" s="26" t="s">
-        <v>25</v>
+      <c r="J30" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1893,16 +1893,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="D31" s="35">
         <v>43779</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1915,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>22</v>
@@ -1930,14 +1930,14 @@
         <v>38</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="34">
         <v>0.15</v>
       </c>
       <c r="I32" s="23"/>
-      <c r="J32" s="26" t="s">
-        <v>25</v>
+      <c r="J32" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -1945,29 +1945,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="D33" s="41">
         <v>43809</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F33" s="23">
         <v>31</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" s="34">
         <v>0.6</v>
       </c>
       <c r="I33" s="23"/>
-      <c r="J33" s="26" t="s">
-        <v>25</v>
+      <c r="J33" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1975,16 +1975,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="D34" s="35">
         <v>43687</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -1999,22 +1999,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>96</v>
       </c>
       <c r="D35" s="45">
         <v>43687</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="43">
         <v>25</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35" s="46">
         <v>1</v>
@@ -2022,8 +2022,8 @@
       <c r="I35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>25</v>
+      <c r="J35" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2031,22 +2031,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>100</v>
-      </c>
       <c r="D36" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F36" s="30">
         <v>34</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" s="49">
         <v>1</v>
@@ -2054,8 +2054,8 @@
       <c r="I36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="26" t="s">
-        <v>25</v>
+      <c r="J36" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2063,13 +2063,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="35">
         <v>43748</v>
@@ -2085,13 +2085,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="37">
         <v>43718</v>
@@ -2100,12 +2100,12 @@
         <v>25</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="26" t="s">
-        <v>25</v>
+      <c r="J38" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>22</v>
@@ -2128,12 +2128,12 @@
         <v>37</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="26" t="s">
-        <v>25</v>
+      <c r="J39" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2141,16 +2141,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -2163,16 +2163,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>109</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -2185,27 +2185,27 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>110</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>111</v>
       </c>
       <c r="F42" s="23">
         <v>32</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="26" t="s">
-        <v>25</v>
+      <c r="J42" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2213,27 +2213,27 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="23">
         <v>41</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="26" t="s">
-        <v>25</v>
+      <c r="J43" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2241,27 +2241,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="23">
         <v>42</v>
       </c>
       <c r="G44" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="26" t="s">
-        <v>25</v>
+      <c r="J44" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2269,16 +2269,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -2291,25 +2291,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>119</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>120</v>
       </c>
       <c r="F46" s="23"/>
       <c r="G46" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="26" t="s">
-        <v>25</v>
+      <c r="J46" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2317,16 +2317,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -2339,27 +2339,27 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="23">
         <v>45</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="26" t="s">
-        <v>25</v>
+      <c r="J48" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2367,27 +2367,27 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F49" s="23">
         <v>47</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="26" t="s">
-        <v>25</v>
+      <c r="J49" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2395,10 +2395,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="D50" s="51">
         <v>43477</v>
@@ -2417,10 +2417,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="52">
         <v>43477</v>
@@ -2439,10 +2439,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" s="53">
         <v>43477</v>
@@ -2454,12 +2454,12 @@
         <v>48</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="26" t="s">
-        <v>25</v>
+      <c r="J52" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>22</v>
@@ -2482,12 +2482,12 @@
         <v>21</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="26" t="s">
-        <v>25</v>
+      <c r="J53" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2495,7 +2495,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>18</v>
@@ -2517,7 +2517,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>22</v>
@@ -2532,12 +2532,12 @@
         <v>48</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="26" t="s">
-        <v>25</v>
+      <c r="J55" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2545,10 +2545,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D56" s="55">
         <v>43536</v>
@@ -2560,12 +2560,14 @@
         <v>49</v>
       </c>
       <c r="G56" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="H56" s="57">
+        <v>0.2</v>
+      </c>
       <c r="I56" s="54"/>
-      <c r="J56" s="26" t="s">
-        <v>25</v>
+      <c r="J56" s="26">
+        <v>43689</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -2573,7 +2575,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>22</v>

--- a/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
+++ b/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t xml:space="preserve"> ID</t>
   </si>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1167,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="J7" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>24</v>
       </c>
       <c r="J8" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="J9" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1345,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="J11" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1377,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="J12" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1409,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="J13" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1487,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="J16" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>24</v>
       </c>
       <c r="J17" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1573,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1605,7 +1605,7 @@
         <v>61</v>
       </c>
       <c r="J20" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1637,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="J21" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1669,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="J22" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1853,9 +1853,11 @@
       <c r="H29" s="38">
         <v>1</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="J29" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1883,9 +1885,11 @@
       <c r="H30" s="38">
         <v>1</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="J30" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1933,11 +1937,13 @@
         <v>89</v>
       </c>
       <c r="H32" s="34">
-        <v>0.15</v>
-      </c>
-      <c r="I32" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="J32" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -1963,11 +1969,13 @@
         <v>89</v>
       </c>
       <c r="H33" s="34">
-        <v>0.6</v>
-      </c>
-      <c r="I33" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="J33" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1989,9 +1997,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
-        <v>20</v>
-      </c>
+      <c r="I34" s="17"/>
       <c r="J34" s="17"/>
     </row>
     <row r="35" spans="1:10" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2023,7 +2029,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2055,7 +2061,7 @@
         <v>24</v>
       </c>
       <c r="J36" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2102,10 +2108,12 @@
       <c r="G38" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="23"/>
+      <c r="H38" s="34">
+        <v>1</v>
+      </c>
       <c r="I38" s="23"/>
       <c r="J38" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.2">
@@ -2130,10 +2138,12 @@
       <c r="G39" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="23"/>
+      <c r="H39" s="34">
+        <v>1</v>
+      </c>
       <c r="I39" s="23"/>
       <c r="J39" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2202,10 +2212,12 @@
       <c r="G42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="23"/>
+      <c r="H42" s="34">
+        <v>0.4</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2230,10 +2242,12 @@
       <c r="G43" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="23"/>
+      <c r="H43" s="34">
+        <v>0.4</v>
+      </c>
       <c r="I43" s="23"/>
       <c r="J43" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2258,10 +2272,12 @@
       <c r="G44" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="23"/>
+      <c r="H44" s="34">
+        <v>0</v>
+      </c>
       <c r="I44" s="23"/>
       <c r="J44" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2309,7 +2325,7 @@
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
       <c r="J46" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -2359,7 +2375,7 @@
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
       <c r="J48" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -2387,7 +2403,7 @@
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
       <c r="J49" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -2459,7 +2475,7 @@
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -2487,7 +2503,7 @@
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -2537,7 +2553,7 @@
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.2">
@@ -2567,7 +2583,7 @@
       </c>
       <c r="I56" s="54"/>
       <c r="J56" s="26">
-        <v>43689</v>
+        <v>43750</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">

--- a/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
+++ b/desarrollo/SBRVP/gestion/SBRVP_PC.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kath/Documents/DebraSolutions/desarrollo/SBRVP/gestion/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,428 +25,446 @@
     <t xml:space="preserve"> ID</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Duración</t>
-  </si>
-  <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>Predecesoras</t>
-  </si>
-  <si>
-    <t>Asignado a</t>
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predecesoras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asignado a</t>
   </si>
   <si>
     <t xml:space="preserve">Porcentaje </t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Evaluado al</t>
-  </si>
-  <si>
-    <t>Sistema de búsqueda, recomendación y venta de productos para mypes</t>
-  </si>
-  <si>
-    <t>40días</t>
-  </si>
-  <si>
-    <t>09/20/2019</t>
-  </si>
-  <si>
-    <t>11/15/2019</t>
-  </si>
-  <si>
-    <t>1. Análisis</t>
-  </si>
-  <si>
-    <t>6días</t>
-  </si>
-  <si>
-    <t>09/26/2019</t>
-  </si>
-  <si>
-    <t>1.1. Reuniones</t>
-  </si>
-  <si>
-    <t>3días</t>
-  </si>
-  <si>
-    <t>09/23/2019</t>
-  </si>
-  <si>
-    <t>COMPLETO</t>
-  </si>
-  <si>
-    <t>Reunión con el cliente</t>
-  </si>
-  <si>
-    <t>1día</t>
-  </si>
-  <si>
-    <t>Arce, Chacaliaza</t>
-  </si>
-  <si>
-    <t>Completo</t>
-  </si>
-  <si>
-    <t>Reunión con el equipo de trabajo</t>
-  </si>
-  <si>
-    <t>09/21/2019</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
-    <t>Reuniones y encuesta a los usuarios finales</t>
-  </si>
-  <si>
-    <t>09/22/2019</t>
-  </si>
-  <si>
-    <t>Elaborar plan de proyecto</t>
-  </si>
-  <si>
-    <t>2días</t>
-  </si>
-  <si>
-    <t>09/25/2019</t>
-  </si>
-  <si>
-    <t>Muñoz</t>
-  </si>
-  <si>
-    <t>Elaborar documento de negocio</t>
-  </si>
-  <si>
-    <t>09/27/2019</t>
-  </si>
-  <si>
-    <t>09/28/2019</t>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluado al</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema de búsqueda, recomendación y venta de productos para mypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/20/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/15/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Análisis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/26/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1. Reuniones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/23/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPLETO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión con el cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1día</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arce, Chacaliaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunión con el equipo de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/21/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuniones y encuesta a los usuarios finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/22/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar plan de proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/25/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaborar documento de alcance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/27/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/28/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Caillahua </t>
   </si>
   <si>
-    <t>1.2. Especificación de requerimientos</t>
-  </si>
-  <si>
-    <t>Identificación y especificación CU</t>
-  </si>
-  <si>
-    <t>Maita</t>
-  </si>
-  <si>
-    <t>Requerimientos funcionales y no funcionales</t>
-  </si>
-  <si>
-    <t>Maita, Ortiz</t>
-  </si>
-  <si>
-    <t>Creacion del Dcoumento de Requerimientos</t>
-  </si>
-  <si>
-    <t>2 dias</t>
-  </si>
-  <si>
-    <t>2. Diseño</t>
-  </si>
-  <si>
-    <t>9días</t>
-  </si>
-  <si>
-    <t>10/05/2019</t>
-  </si>
-  <si>
-    <t>2.1. Diseño funcional</t>
-  </si>
-  <si>
-    <t>09/29/2019</t>
-  </si>
-  <si>
-    <t>Desarrollo de prototipos</t>
-  </si>
-  <si>
-    <t>Arce, Chacaliaza, Gutierrez</t>
-  </si>
-  <si>
-    <t>Evaluación de prototipos</t>
-  </si>
-  <si>
-    <t>Llerena, Chacaliaza</t>
-  </si>
-  <si>
-    <t>2.2. Diseño técnico</t>
-  </si>
-  <si>
-    <t>Realizar los CU</t>
-  </si>
-  <si>
-    <t>09/30/2019</t>
-  </si>
-  <si>
-    <t>Llerena, Asmat</t>
-  </si>
-  <si>
-    <t>Diseño de la base de datos</t>
-  </si>
-  <si>
-    <t>10/01/2019</t>
-  </si>
-  <si>
-    <t>Chacaliaza</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Documento arquitectónico</t>
-  </si>
-  <si>
-    <t>10/02/2019</t>
-  </si>
-  <si>
-    <t>Documento de diseño</t>
-  </si>
-  <si>
-    <t>Maverick</t>
-  </si>
-  <si>
-    <t>3. Desarrollo</t>
-  </si>
-  <si>
-    <t>24días</t>
-  </si>
-  <si>
-    <t>11/14/2019</t>
-  </si>
-  <si>
-    <t>3.1. Ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t>10/08/2019</t>
-  </si>
-  <si>
-    <t>Preparar ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t>10/06/2019</t>
-  </si>
-  <si>
-    <t>Mantener el ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t>10/07/2019</t>
-  </si>
-  <si>
-    <t>Arce</t>
-  </si>
-  <si>
-    <t>Cierre del ambiente de desarrollo</t>
-  </si>
-  <si>
-    <t>3.2. Front-end</t>
-  </si>
-  <si>
-    <t>21días</t>
-  </si>
-  <si>
-    <t>10/29/2019</t>
-  </si>
-  <si>
-    <t>Maquetar</t>
-  </si>
-  <si>
-    <t>4días</t>
-  </si>
-  <si>
-    <t>10/11/2019</t>
-  </si>
-  <si>
-    <t>Codificación vistas web</t>
-  </si>
-  <si>
-    <t>17días</t>
-  </si>
-  <si>
-    <t>Muñoz, Ortiz</t>
-  </si>
-  <si>
-    <t>3.3. Back-end</t>
-  </si>
-  <si>
-    <t>33dìas</t>
-  </si>
-  <si>
-    <t>Conexión a la base de datos</t>
-  </si>
-  <si>
-    <t>Chacaliaza, Gutierrez</t>
-  </si>
-  <si>
-    <t>Codificación de la lógica de negocio</t>
-  </si>
-  <si>
-    <t>31 días</t>
-  </si>
-  <si>
-    <t>3.4. Aplicación móvil</t>
-  </si>
-  <si>
-    <t>22días</t>
-  </si>
-  <si>
-    <t>Desarrollo de los layouts</t>
-  </si>
-  <si>
-    <t>10días</t>
-  </si>
-  <si>
-    <t>10/17/2019</t>
-  </si>
-  <si>
-    <t>Arce, Caillahua, Maverick</t>
-  </si>
-  <si>
-    <t>Codificación vistas móvil</t>
-  </si>
-  <si>
-    <t>11días</t>
-  </si>
-  <si>
-    <t>3.5. Base de datos</t>
-  </si>
-  <si>
-    <t>Creación del Script de base de datos</t>
-  </si>
-  <si>
-    <t>Chacaliaza, Gutierrez, Maita</t>
-  </si>
-  <si>
-    <t>Implementación de la base de datos</t>
-  </si>
-  <si>
-    <t>4. Pruebas</t>
-  </si>
-  <si>
-    <t>15días</t>
-  </si>
-  <si>
-    <t>11/30/2019</t>
-  </si>
-  <si>
-    <t>4.1. Ambiente de prueba</t>
-  </si>
-  <si>
-    <t>11/02/2019</t>
-  </si>
-  <si>
-    <t>Preparar el ambiente de pruebas</t>
-  </si>
-  <si>
-    <t>10/31/2019</t>
-  </si>
-  <si>
-    <t>Mantener el ambiente de pruebas</t>
-  </si>
-  <si>
-    <t>11/01/2019</t>
-  </si>
-  <si>
-    <t>Cierre del ambiente de pruebas</t>
-  </si>
-  <si>
-    <t>Arce, Maverick</t>
-  </si>
-  <si>
-    <t>4.2. Pruebas integrales</t>
-  </si>
-  <si>
-    <t>5días</t>
-  </si>
-  <si>
-    <t>11/06/2019</t>
-  </si>
-  <si>
-    <t>Inspecciones</t>
-  </si>
-  <si>
-    <t>11/05/2019</t>
-  </si>
-  <si>
-    <t>Gutierrez, Llerena</t>
-  </si>
-  <si>
-    <t>4.3. Pruebas de aceptación de usuario</t>
-  </si>
-  <si>
-    <t>11/12/2019</t>
-  </si>
-  <si>
-    <t>Validación</t>
-  </si>
-  <si>
-    <t>11/07/2019</t>
-  </si>
-  <si>
-    <t>Realizar cambios</t>
-  </si>
-  <si>
-    <t>5. Cierre</t>
-  </si>
-  <si>
-    <t>5.1. Documentos de prueba</t>
-  </si>
-  <si>
-    <t>Analizar resultados</t>
-  </si>
-  <si>
-    <t>Caillahua, Arce</t>
-  </si>
-  <si>
-    <t>Documentar resultados</t>
-  </si>
-  <si>
-    <t>Ortiz, Maita</t>
-  </si>
-  <si>
-    <t>5.2. Documento de despliegue y uso</t>
-  </si>
-  <si>
-    <t>Documentación de despliegue</t>
-  </si>
-  <si>
-    <t>Documento de manual de usuario</t>
-  </si>
-  <si>
-    <t>Aceptación del sistema</t>
+    <t xml:space="preserve">1.2. Especificación de requerimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificación y especificación CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requerimientos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maita, Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creacion del Dcoumento de Requerimientos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1. Diseño funcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/29/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de prototipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arce, Chacaliaza, Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación de prototipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llerena, Chacaliaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2. Diseño técnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar los CU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/30/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llerena, Asmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/01/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chacaliaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento arquitectónico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/02/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de diseño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maverick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/14/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/08/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantener el ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/07/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cierre del ambiente de desarrollo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2. Front-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/29/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquetar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/11/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificación vistas web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muñoz, Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3. Back-end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33dìas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexión a la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chacaliaza, Gutierrez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificación de la lógica de negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4. Aplicación móvil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de los layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/17/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arce, Caillahua, Maverick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codificación vistas móvil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5. Base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación del Script de base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chacaliaza, Gutierrez, Maita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementación de la base de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/30/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1. Ambiente de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/02/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparar el ambiente de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/31/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantener el ambiente de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/01/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cierre del ambiente de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arce, Maverick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2. Pruebas integrales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5días</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/06/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspecciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/05/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez, Llerena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3. Pruebas de aceptación de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/07/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Cierre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1. Documentos de prueba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizar resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caillahua, Arce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentar resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ortiz, Maita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2. Documento de despliegue y uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación de despliegue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento de manual de usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceptación del sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0\ %"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0\ %"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -504,183 +512,284 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+  <cellXfs count="57">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -739,306 +848,35 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="1025" width="9.1640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="9.17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1070,8 +908,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1092,8 +930,8 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -1114,8 +952,8 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1132,7 +970,7 @@
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
-      <c r="H4" s="20">
+      <c r="H4" s="20" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="17" t="s">
@@ -1140,8 +978,8 @@
       </c>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1160,18 +998,18 @@
       <c r="G5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+      <c r="J5" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -1190,18 +1028,18 @@
       <c r="G6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+      <c r="J6" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
@@ -1216,24 +1054,24 @@
       <c r="E7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="23" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+      <c r="J7" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
@@ -1252,18 +1090,18 @@
       <c r="G8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+      <c r="J8" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
@@ -1282,18 +1120,18 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="J9" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="16" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1316,8 +1154,8 @@
       </c>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -1332,24 +1170,24 @@
       <c r="E11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="23" t="n">
         <v>8</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="J11" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1364,24 +1202,24 @@
       <c r="E12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="23" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+      <c r="J12" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -1396,24 +1234,24 @@
       <c r="E13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="23" t="n">
         <v>11</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="27">
+      <c r="J13" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1434,8 +1272,8 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
@@ -1452,46 +1290,46 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="20">
+      <c r="H15" s="20" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" s="33" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+    <row r="16" s="32" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="28" t="n">
         <v>11</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
+      <c r="J16" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -1506,24 +1344,24 @@
       <c r="E17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="23" t="n">
         <v>15</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="J17" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1544,8 +1382,8 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
@@ -1560,24 +1398,24 @@
       <c r="E19" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="23" t="n">
         <v>16</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
+      <c r="J19" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -1592,24 +1430,24 @@
       <c r="E20" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="23" t="n">
         <v>16</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="25" t="n">
         <v>0.9</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="J20" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -1624,24 +1462,24 @@
       <c r="E21" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="23" t="n">
         <v>16</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
+      <c r="J21" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
@@ -1656,24 +1494,24 @@
       <c r="E22" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="23" t="n">
         <v>20</v>
       </c>
       <c r="G22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="25" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="J22" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -1694,8 +1532,8 @@
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1716,8 +1554,8 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -1732,22 +1570,22 @@
       <c r="E25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="23" t="n">
         <v>21</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33" t="n">
         <v>0.5</v>
       </c>
       <c r="I25" s="23"/>
-      <c r="J25" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
+      <c r="J25" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
@@ -1762,22 +1600,22 @@
       <c r="E26" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="23" t="n">
         <v>24</v>
       </c>
       <c r="G26" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="33" t="n">
         <v>0.7</v>
       </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="21">
+      <c r="J26" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
@@ -1792,22 +1630,22 @@
       <c r="E27" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="23" t="n">
         <v>25</v>
       </c>
       <c r="G27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="33" t="n">
         <v>0.1</v>
       </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="J27" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -1816,10 +1654,10 @@
       <c r="C28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="34" t="n">
         <v>43687</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>79</v>
       </c>
       <c r="F28" s="17"/>
@@ -1828,8 +1666,8 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="21">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -1838,30 +1676,30 @@
       <c r="C29" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36" t="n">
         <v>43687</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="23" t="n">
         <v>25</v>
       </c>
       <c r="G29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="37" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="21">
+      <c r="J29" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -1873,27 +1711,27 @@
       <c r="D30" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="23" t="n">
         <v>28</v>
       </c>
       <c r="G30" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="J30" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -1902,7 +1740,7 @@
       <c r="C31" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="34" t="n">
         <v>43779</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -1914,8 +1752,8 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="21">
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -1924,30 +1762,30 @@
       <c r="C32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36" t="n">
         <v>43779</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36" t="n">
         <v>43779</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="34">
+      <c r="H32" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="21">
+      <c r="J32" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
@@ -1956,30 +1794,30 @@
       <c r="C33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="40" t="n">
         <v>43809</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="G33" s="40" t="s">
+      <c r="G33" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="J33" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
@@ -1988,10 +1826,10 @@
       <c r="C34" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="34" t="n">
         <v>43687</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="17"/>
@@ -2000,72 +1838,72 @@
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="42">
+    <row r="35" s="46" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="41" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="44" t="n">
         <v>43687</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="42" t="n">
         <v>25</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="I35" s="43" t="s">
+      <c r="I35" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="J35" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="21">
+      <c r="J35" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="36" s="49" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="29" t="n">
         <v>34</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="I36" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="J36" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
@@ -2077,7 +1915,7 @@
       <c r="D37" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="34" t="n">
         <v>43748</v>
       </c>
       <c r="F37" s="17"/>
@@ -2086,8 +1924,8 @@
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="21">
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2099,25 +1937,25 @@
       <c r="D38" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36" t="n">
         <v>43718</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="34">
+      <c r="H38" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
+      <c r="J38" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -2126,28 +1964,28 @@
       <c r="C39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36" t="n">
         <v>43718</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36" t="n">
         <v>43748</v>
       </c>
-      <c r="F39" s="23">
+      <c r="F39" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="G39" s="40" t="s">
+      <c r="G39" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="34">
+      <c r="H39" s="33" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="23"/>
-      <c r="J39" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="27">
+      <c r="J39" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -2159,7 +1997,7 @@
       <c r="D40" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="50" t="s">
         <v>106</v>
       </c>
       <c r="F40" s="15"/>
@@ -2168,8 +2006,8 @@
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
@@ -2190,8 +2028,8 @@
       <c r="I41" s="17"/>
       <c r="J41" s="17"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -2206,22 +2044,22 @@
       <c r="E42" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="23" t="n">
         <v>32</v>
       </c>
       <c r="G42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="33" t="n">
         <v>0.4</v>
       </c>
       <c r="I42" s="23"/>
-      <c r="J42" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="21">
+      <c r="J42" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
@@ -2236,22 +2074,22 @@
       <c r="E43" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="23" t="n">
         <v>41</v>
       </c>
       <c r="G43" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="33" t="n">
         <v>0.4</v>
       </c>
       <c r="I43" s="23"/>
-      <c r="J43" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
+      <c r="J43" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -2266,22 +2104,22 @@
       <c r="E44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44" s="23" t="n">
         <v>42</v>
       </c>
       <c r="G44" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="34">
+      <c r="H44" s="33" t="n">
         <v>0</v>
       </c>
       <c r="I44" s="23"/>
-      <c r="J44" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
+      <c r="J44" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
@@ -2302,8 +2140,8 @@
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="21">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -2324,12 +2162,12 @@
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="J46" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="16" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -2350,8 +2188,8 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
@@ -2366,7 +2204,7 @@
       <c r="E48" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="23" t="n">
         <v>45</v>
       </c>
       <c r="G48" s="23" t="s">
@@ -2374,12 +2212,12 @@
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="21">
+      <c r="J48" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
@@ -2394,7 +2232,7 @@
       <c r="E49" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="23" t="n">
         <v>47</v>
       </c>
       <c r="G49" s="23" t="s">
@@ -2402,12 +2240,12 @@
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="27">
+      <c r="J49" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="27" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -2416,10 +2254,10 @@
       <c r="C50" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="51">
+      <c r="D50" s="50" t="n">
         <v>43477</v>
       </c>
-      <c r="E50" s="51">
+      <c r="E50" s="50" t="n">
         <v>43597</v>
       </c>
       <c r="F50" s="15"/>
@@ -2428,8 +2266,8 @@
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="16" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="17" t="s">
@@ -2438,10 +2276,10 @@
       <c r="C51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="51" t="n">
         <v>43477</v>
       </c>
-      <c r="E51" s="52">
+      <c r="E51" s="51" t="n">
         <v>43536</v>
       </c>
       <c r="F51" s="17"/>
@@ -2450,8 +2288,8 @@
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="21">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -2460,13 +2298,13 @@
       <c r="C52" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D52" s="52" t="n">
         <v>43477</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E52" s="52" t="n">
         <v>43508</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="23" t="n">
         <v>48</v>
       </c>
       <c r="G52" s="23" t="s">
@@ -2474,12 +2312,12 @@
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="21">
+      <c r="J52" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -2488,13 +2326,13 @@
       <c r="C53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="52" t="n">
         <v>43536</v>
       </c>
-      <c r="E53" s="53">
+      <c r="E53" s="52" t="n">
         <v>43536</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="23" t="n">
         <v>21</v>
       </c>
       <c r="G53" s="23" t="s">
@@ -2502,12 +2340,12 @@
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
+      <c r="J53" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="17" t="s">
@@ -2516,10 +2354,10 @@
       <c r="C54" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="52">
+      <c r="D54" s="51" t="n">
         <v>43536</v>
       </c>
-      <c r="E54" s="52">
+      <c r="E54" s="51" t="n">
         <v>43597</v>
       </c>
       <c r="F54" s="17"/>
@@ -2528,8 +2366,8 @@
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="21">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="23" t="s">
@@ -2538,13 +2376,13 @@
       <c r="C55" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="53">
+      <c r="D55" s="52" t="n">
         <v>43567</v>
       </c>
-      <c r="E55" s="53">
+      <c r="E55" s="52" t="n">
         <v>43597</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="23" t="n">
         <v>48</v>
       </c>
       <c r="G55" s="23" t="s">
@@ -2552,42 +2390,42 @@
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A56" s="42">
+      <c r="J55" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="56" s="56" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="41" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="55">
+      <c r="D56" s="54" t="n">
         <v>43536</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="54" t="n">
         <v>43567</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="53" t="n">
         <v>49</v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G56" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="H56" s="57">
+      <c r="H56" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="I56" s="54"/>
-      <c r="J56" s="26">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
+      <c r="I56" s="53"/>
+      <c r="J56" s="26" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="17" t="s">
@@ -2596,10 +2434,10 @@
       <c r="C57" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="51" t="n">
         <v>43597</v>
       </c>
-      <c r="E57" s="52">
+      <c r="E57" s="51" t="n">
         <v>43597</v>
       </c>
       <c r="F57" s="17"/>
@@ -2608,8 +2446,14 @@
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>